--- a/test.xlsx
+++ b/test.xlsx
@@ -5,21 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ec33f73f7216295a/home/Cumplly/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TakutoYamana\OneDrive\home\Talay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3960FD49-A87C-46A6-A6C8-05BC94C557AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="114_{7178E3A4-A3F0-4E25-A116-4D32F52C65AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4F0F1F78-AA09-4857-865F-326A82D4BC5F}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="5970" windowWidth="14400" windowHeight="7545" xr2:uid="{0D2E91D2-C983-418D-BB34-11890384C8F0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -28,6 +25,36 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>=(SUM(B2:F2) - MAX(B2:F2) - MIN(B2:F2)) / 3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -71,8 +98,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -388,13 +421,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186F67BF-51D2-4BC5-B7B0-814BB089B98A}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,22 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TakutoYamana\OneDrive\home\Talay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="114_{7178E3A4-A3F0-4E25-A116-4D32F52C65AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4F0F1F78-AA09-4857-865F-326A82D4BC5F}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_67BFEA4FBB41CEFE6165A496550E96BA2DFC9D3B" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4A22B623-35EF-4151-8223-373173A68AAB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -52,7 +44,6 @@
   </si>
   <si>
     <t>=(SUM(B2:F2) - MAX(B2:F2) - MIN(B2:F2)) / 3</t>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -425,7 +416,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="A8" sqref="A2:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TakutoYamana\OneDrive\home\Talay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_67BFEA4FBB41CEFE6165A496550E96BA2DFC9D3B" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4A22B623-35EF-4151-8223-373173A68AAB}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="114_{7AE93058-6915-410C-B007-F12EABCB4060}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{097EC770-3E5E-46DA-907D-40E10E3851FC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -416,7 +416,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A2:G8"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,19 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TakutoYamana\OneDrive\home\Talay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="114_{7AE93058-6915-410C-B007-F12EABCB4060}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{097EC770-3E5E-46DA-907D-40E10E3851FC}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="114_{320A5DFC-570B-466D-95FF-0109F1D896AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F8D2CF7B-4D4F-4F6D-B7FF-420E50262D1D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -43,7 +51,11 @@
     <t>AVG</t>
   </si>
   <si>
+    <t>Nyanyan</t>
+  </si>
+  <si>
     <t>=(SUM(B2:F2) - MAX(B2:F2) - MIN(B2:F2)) / 3</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -89,7 +101,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -97,6 +109,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -413,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -444,12 +459,36 @@
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3">
+        <v>16.12</v>
+      </c>
+      <c r="C3" s="3">
+        <v>15.343999999999999</v>
+      </c>
+      <c r="D3" s="3">
+        <v>12.782</v>
+      </c>
+      <c r="E3" s="3">
+        <v>14.52</v>
+      </c>
+      <c r="F3" s="3">
+        <v>15.742000000000001</v>
+      </c>
+      <c r="G3">
+        <f>(SUM(B3:F3) - MAX(B3:F3) - MIN(B3:F3)) / 3</f>
+        <v>15.201999999999998</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,87 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TakutoYamana\OneDrive\home\Talay\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="114_{320A5DFC-570B-466D-95FF-0109F1D896AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F8D2CF7B-4D4F-4F6D-B7FF-420E50262D1D}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>T3</t>
-  </si>
-  <si>
-    <t>T4</t>
-  </si>
-  <si>
-    <t>T5</t>
-  </si>
-  <si>
-    <t>AVG</t>
-  </si>
-  <si>
-    <t>Nyanyan</t>
-  </si>
-  <si>
-    <t>=(SUM(B2:F2) - MAX(B2:F2) - MIN(B2:F2)) / 3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+      <family val="2"/>
       <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -97,37 +51,28 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -427,71 +372,239 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3">
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>T4</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>T5</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>AVG</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>=(SUM(B2:F2) - MAX(B2:F2) - MIN(B2:F2)) / 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="1" t="n"/>
+      <c r="C2" s="1" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Nyanyan</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
         <v>16.12</v>
       </c>
-      <c r="C3" s="3">
-        <v>15.343999999999999</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3" s="3" t="n">
+        <v>15.344</v>
+      </c>
+      <c r="D3" s="3" t="n">
         <v>12.782</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="3" t="n">
         <v>14.52</v>
       </c>
-      <c r="F3" s="3">
-        <v>15.742000000000001</v>
-      </c>
-      <c r="G3">
+      <c r="F3" s="3" t="n">
+        <v>15.742</v>
+      </c>
+      <c r="G3" s="3">
         <f>(SUM(B3:F3) - MAX(B3:F3) - MIN(B3:F3)) / 3</f>
-        <v>15.201999999999998</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>0.773</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>0.418</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>0.887</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>1.114</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>20191213A</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>0.697</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" s="3" t="n"/>
+      <c r="E6" s="3" t="n"/>
+      <c r="F6" s="3" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>20191213B</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>1.645</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="n"/>
+      <c r="E7" s="3" t="n"/>
+      <c r="F7" s="3" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>0.697</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>0.697</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>1.645</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>0.503</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>1.639</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1.639</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3.558</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1.051</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2.325</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -1,41 +1,75 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TakutoYamana\OneDrive\home\Talay\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="114_{8D5A779A-5A42-4FD6-A11D-F98E3FEFAB48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3C23BCBE-7AEF-49B9-AB90-F2E231B63837}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>=(SUM(B2:F2) - MAX(B2:F2) - MIN(B2:F2)) / 3</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="6"/>
       <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
-      <family val="2"/>
-      <sz val="6"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -51,28 +85,38 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -372,239 +416,121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="A9" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="22.25" style="4" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>T3</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>T4</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>T5</t>
-        </is>
-      </c>
-      <c r="G1" s="3" t="inlineStr">
-        <is>
-          <t>AVG</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>=(SUM(B2:F2) - MAX(B2:F2) - MIN(B2:F2)) / 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="B2" s="1" t="n"/>
-      <c r="C2" s="1" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Nyanyan</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>16.12</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>15.344</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>12.782</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>14.52</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>15.742</v>
-      </c>
-      <c r="G3" s="3">
-        <f>(SUM(B3:F3) - MAX(B3:F3) - MIN(B3:F3)) / 3</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>0.773</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>0.418</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>0.887</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>1.114</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>20191213A</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>0.697</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="n"/>
-      <c r="D6" s="3" t="n"/>
-      <c r="E6" s="3" t="n"/>
-      <c r="F6" s="3" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>20191213B</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>1.645</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="n"/>
-      <c r="D7" s="3" t="n"/>
-      <c r="E7" s="3" t="n"/>
-      <c r="F7" s="3" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>0.697</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>0.697</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>1.645</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>0.503</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>1.639</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1.639</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>3.558</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1.051</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2.325</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="3"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TakutoYamana\OneDrive\home\Talay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="114_{8D5A779A-5A42-4FD6-A11D-F98E3FEFAB48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3C23BCBE-7AEF-49B9-AB90-F2E231B63837}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="114_{CBC43048-2C00-4750-BC07-2ED8FD58F4FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -43,13 +43,19 @@
     <t>AVG</t>
   </si>
   <si>
-    <t>=(SUM(B2:F2) - MAX(B2:F2) - MIN(B2:F2)) / 3</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>q</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -89,20 +95,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -420,114 +423,113 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A2:A9"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.25" style="4" customWidth="1"/>
+    <col min="1" max="1" width="22.25" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="3"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D2">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E2">
+        <v>1.111</v>
+      </c>
+      <c r="F2">
+        <v>123.456</v>
+      </c>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D3">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E3">
+        <v>1.111</v>
+      </c>
+      <c r="F3">
+        <v>1.234</v>
+      </c>
+      <c r="G3">
+        <v>3.3210000000000002</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="A9" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="3"/>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="3"/>
+      <c r="A14" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,19 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TakutoYamana\OneDrive\home\Talay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="114_{CBC43048-2C00-4750-BC07-2ED8FD58F4FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="114_{AC76655D-8721-429C-96FD-EB55564C42FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E952B741-0B4B-4A11-BD76-1C3B4AE2D3D5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Name</t>
   </si>
@@ -41,12 +49,6 @@
   </si>
   <si>
     <t>AVG</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>q</t>
   </si>
 </sst>
 </file>
@@ -423,14 +425,14 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G6" sqref="A2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="22.25" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="2" max="5" width="9" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
@@ -458,57 +460,43 @@
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D2">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="E2">
-        <v>1.111</v>
-      </c>
-      <c r="F2">
-        <v>123.456</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D3">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="E3">
-        <v>1.111</v>
-      </c>
-      <c r="F3">
-        <v>1.234</v>
-      </c>
-      <c r="G3">
-        <v>3.3210000000000002</v>
-      </c>
+      <c r="A3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,83 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TakutoYamana\OneDrive\home\Talay\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="114_{AC76655D-8721-429C-96FD-EB55564C42FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E952B741-0B4B-4A11-BD76-1C3B4AE2D3D5}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>T3</t>
-  </si>
-  <si>
-    <t>T4</t>
-  </si>
-  <si>
-    <t>T5</t>
-  </si>
-  <si>
-    <t>AVG</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="164" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+      <family val="2"/>
       <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -93,35 +53,33 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -421,106 +379,185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G6" sqref="A2:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="22.25" style="1" customWidth="1"/>
-    <col min="2" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col width="22.25" customWidth="1" style="4" min="1" max="1"/>
+    <col width="9" customWidth="1" style="5" min="2" max="5"/>
+    <col width="9" customWidth="1" style="5" min="6" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>T4</t>
+        </is>
+      </c>
+      <c r="F1" s="5" t="inlineStr">
+        <is>
+          <t>T5</t>
+        </is>
+      </c>
+      <c r="G1" s="5" t="inlineStr">
+        <is>
+          <t>AVG</t>
+        </is>
+      </c>
+      <c r="I1" s="6" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>Nyanyan-2x2</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>3.684</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>3.971</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>2.894</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>3.123</v>
+      </c>
+      <c r="G2" s="6" t="n">
+        <v>3.233666666666667</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DNF</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E3" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F3" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="2"/>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="2"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="2"/>
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="n"/>
+      <c r="B4" s="0" t="n"/>
+      <c r="C4" s="0" t="n"/>
+      <c r="D4" s="0" t="n"/>
+      <c r="E4" s="0" t="n"/>
+      <c r="F4" s="0" t="n"/>
+      <c r="G4" s="0" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>TEST2</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>DNF</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>DNF</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>DNF</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n"/>
+      <c r="B6" s="0" t="n"/>
+      <c r="C6" s="0" t="n"/>
+      <c r="D6" s="0" t="n"/>
+      <c r="E6" s="0" t="n"/>
+      <c r="F6" s="0" t="n"/>
+      <c r="G6" s="0" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -1,43 +1,82 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TakutoYamana\OneDrive\home\Talay\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="114_{B1AB69B7-FED3-4E4F-B0C2-31CB7CA459D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D4DC4CB7-024B-49BA-BA55-F0CB3D34A2E9}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Nyanyan</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>DNF</t>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="6"/>
       <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
-      <family val="2"/>
-      <sz val="6"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -53,33 +92,35 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -379,185 +420,162 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="A2:G6"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col width="22.25" customWidth="1" style="4" min="1" max="1"/>
-    <col width="9" customWidth="1" style="5" min="2" max="5"/>
-    <col width="9" customWidth="1" style="5" min="6" max="16384"/>
+    <col min="1" max="1" width="22.25" style="1" customWidth="1"/>
+    <col min="2" max="8" width="9" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="5" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="5" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="C1" s="5" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="D1" s="5" t="inlineStr">
-        <is>
-          <t>T3</t>
-        </is>
-      </c>
-      <c r="E1" s="5" t="inlineStr">
-        <is>
-          <t>T4</t>
-        </is>
-      </c>
-      <c r="F1" s="5" t="inlineStr">
-        <is>
-          <t>T5</t>
-        </is>
-      </c>
-      <c r="G1" s="5" t="inlineStr">
-        <is>
-          <t>AVG</t>
-        </is>
-      </c>
-      <c r="I1" s="6" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="5" t="inlineStr">
-        <is>
-          <t>Nyanyan-2x2</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>3.684</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>3.971</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>2.894</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>3.123</v>
-      </c>
-      <c r="G2" s="6" t="n">
-        <v>3.233666666666667</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>DNF</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="n">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="n">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="n"/>
-      <c r="B4" s="0" t="n"/>
-      <c r="C4" s="0" t="n"/>
-      <c r="D4" s="0" t="n"/>
-      <c r="E4" s="0" t="n"/>
-      <c r="F4" s="0" t="n"/>
-      <c r="G4" s="0" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="inlineStr">
-        <is>
-          <t>TEST2</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>DNF</t>
-        </is>
-      </c>
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t>DNF</t>
-        </is>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G5" s="0" t="inlineStr">
-        <is>
-          <t>DNF</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="n"/>
-      <c r="B6" s="0" t="n"/>
-      <c r="C6" s="0" t="n"/>
-      <c r="D6" s="0" t="n"/>
-      <c r="E6" s="0" t="n"/>
-      <c r="F6" s="0" t="n"/>
-      <c r="G6" s="0" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="5" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="5" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="5" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="n"/>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3.2679999999999998</v>
+      </c>
+      <c r="C2">
+        <v>3.7679999999999998</v>
+      </c>
+      <c r="D2">
+        <v>4.22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>3.7370000000000001</v>
+      </c>
+      <c r="G2">
+        <v>3.9079999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="2"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="2"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="2"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="2"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="2"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="2"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" s="2"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" s="2"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TakutoYamana\OneDrive\home\Talay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="114_{B1AB69B7-FED3-4E4F-B0C2-31CB7CA459D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D4DC4CB7-024B-49BA-BA55-F0CB3D34A2E9}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="114_{13C30DA1-26E3-4A2D-A92C-05F7B0A8F27C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{15366FE9-04DF-435B-B781-1CCD704557E3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,34 +20,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
   <si>
     <t>Nyanyan</t>
   </si>
   <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>T3</t>
-  </si>
-  <si>
-    <t>T4</t>
-  </si>
-  <si>
-    <t>T5</t>
-  </si>
-  <si>
-    <t>AVG</t>
-  </si>
-  <si>
     <t>DNF</t>
   </si>
   <si>
-    <t>Name</t>
-    <phoneticPr fontId="1"/>
+    <t>20191216A</t>
   </si>
 </sst>
 </file>
@@ -424,19 +426,19 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="22.25" style="1" customWidth="1"/>
-    <col min="2" max="8" width="9" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="2" max="9" width="9" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -460,7 +462,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>3.2679999999999998</v>
@@ -472,7 +474,7 @@
         <v>4.22</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>3.7370000000000001</v>
@@ -481,13 +483,31 @@
         <v>3.9079999999999999</v>
       </c>
     </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>1.6</v>
+      </c>
+      <c r="C3">
+        <v>4.742</v>
+      </c>
+      <c r="D3">
+        <v>1.3240000000000001</v>
+      </c>
+      <c r="E3">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="F3">
+        <v>1.8049999999999999</v>
+      </c>
+      <c r="G3">
+        <v>1.5760000000000001</v>
+      </c>
+    </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
       <c r="G4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,84 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TakutoYamana\OneDrive\home\Talay\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="114_{13C30DA1-26E3-4A2D-A92C-05F7B0A8F27C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{15366FE9-04DF-435B-B781-1CCD704557E3}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>T3</t>
-  </si>
-  <si>
-    <t>T4</t>
-  </si>
-  <si>
-    <t>T5</t>
-  </si>
-  <si>
-    <t>AVG</t>
-  </si>
-  <si>
-    <t>Nyanyan</t>
-  </si>
-  <si>
-    <t>DNF</t>
-  </si>
-  <si>
-    <t>20191216A</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="164" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+      <family val="2"/>
       <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -94,35 +53,33 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -422,180 +379,358 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="22.25" style="1" customWidth="1"/>
-    <col min="2" max="9" width="9" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col width="22.25" customWidth="1" style="4" min="1" max="1"/>
+    <col width="9" customWidth="1" style="5" min="2" max="12"/>
+    <col width="9" customWidth="1" style="5" min="13" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>3.2679999999999998</v>
-      </c>
-      <c r="C2">
-        <v>3.7679999999999998</v>
-      </c>
-      <c r="D2">
+    <row r="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>T4</t>
+        </is>
+      </c>
+      <c r="F1" s="5" t="inlineStr">
+        <is>
+          <t>T5</t>
+        </is>
+      </c>
+      <c r="G1" s="5" t="inlineStr">
+        <is>
+          <t>AVG</t>
+        </is>
+      </c>
+      <c r="I1" s="6" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>Nyanyan</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>3.268</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>3.768</v>
+      </c>
+      <c r="D2" s="0" t="n">
         <v>4.22</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>3.7370000000000001</v>
-      </c>
-      <c r="G2">
-        <v>3.9079999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>DNF</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>3.737</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>3.908</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>20191216A</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
         <v>1.6</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0" t="n">
         <v>4.742</v>
       </c>
-      <c r="D3">
-        <v>1.3240000000000001</v>
-      </c>
-      <c r="E3">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="F3">
-        <v>1.8049999999999999</v>
-      </c>
-      <c r="G3">
-        <v>1.5760000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
-      <c r="G4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="2"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="2"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="2"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="2"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
+      <c r="D3" s="0" t="n">
+        <v>1.324</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1.805</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1.576</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>6.245</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>8.896000000000001</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>4.406</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>3.405</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>4.865</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>4.949</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>5.547</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>4.883</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>5.542</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>3.873</v>
+      </c>
+      <c r="G5" s="0" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>DNF</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>6.549</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>3.535</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>5.356</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>5.305</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>3.403</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>4.884</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>3.683</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>3.898</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>4.836</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>4.139</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>2.878</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>3.806</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>3.273</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>13.513</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>3.339</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>3.473</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>11.369</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>4.405</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>4.149</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>2.938</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>4.749</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>4.434</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>11.241</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>3.411</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>5.885</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>4.329</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>4.874</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>3.544</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>4.611</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>4.404</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>27.857</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>4.63</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>GADSAJJj</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>3.406</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>2.603</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>3.472</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>2.094</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>5.287</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="n"/>
+      <c r="B13" s="0" t="n"/>
+      <c r="C13" s="0" t="n"/>
+      <c r="D13" s="0" t="n"/>
+      <c r="E13" s="0" t="n"/>
+      <c r="F13" s="0" t="n"/>
+      <c r="G13" s="0" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="n"/>
+      <c r="B14" s="0" t="n"/>
+      <c r="C14" s="0" t="n"/>
+      <c r="D14" s="0" t="n"/>
+      <c r="E14" s="0" t="n"/>
+      <c r="F14" s="0" t="n"/>
+      <c r="G14" s="0" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>